--- a/server/DATABASE/customers.xlsx
+++ b/server/DATABASE/customers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.1</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>surname</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>age</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>surname</t>
+          <t>login</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>password</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>login</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
@@ -485,110 +475,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5266</v>
+        <v>5134</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Kowalski</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Admin</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Kowalski</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>11</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>11111111</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
-        <v>4906</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Kowalski</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>11</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>11111111</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>9202</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kowalski</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>11111111</t>
-        </is>
-      </c>
-      <c r="J4" t="b">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12341234</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
         <v>0</v>
       </c>
     </row>
